--- a/children/Modulverlauf.xlsx
+++ b/children/Modulverlauf.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/fopra/Interna/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/fopra/children/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0B445AE-B6F0-0E48-ABC4-F84DF0060468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3673EEDC-7D7C-8A4C-AF30-353B210A877D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Nr</t>
   </si>
@@ -130,24 +130,9 @@
     <t>Hallo Forschung</t>
   </si>
   <si>
-    <t>Beobachtungsstudien</t>
-  </si>
-  <si>
-    <t>Experimente</t>
-  </si>
-  <si>
-    <t>Vertiefung - Versuchspläne</t>
-  </si>
-  <si>
-    <t>Online-Studien</t>
-  </si>
-  <si>
     <t>Kausalanalyse</t>
   </si>
   <si>
-    <t>Fallzahlplanung</t>
-  </si>
-  <si>
     <t>Versuchsdurchführung</t>
   </si>
   <si>
@@ -161,6 +146,15 @@
   </si>
   <si>
     <t>Schreiben</t>
+  </si>
+  <si>
+    <t>Populationsbeschreibung</t>
+  </si>
+  <si>
+    <t>Versuchspläne</t>
+  </si>
+  <si>
+    <t>Messung</t>
   </si>
 </sst>
 </file>
@@ -524,7 +518,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="187" zoomScaleNormal="187" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -567,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>6</v>
@@ -578,7 +572,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -589,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -603,7 +597,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -617,7 +611,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -628,7 +622,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -639,7 +633,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
@@ -653,7 +647,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
         <v>13</v>
@@ -664,7 +658,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -689,7 +683,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -703,7 +697,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -717,7 +711,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -728,7 +722,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>

--- a/children/Modulverlauf.xlsx
+++ b/children/Modulverlauf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiansaueruser/github-repos/fopra/children/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3673EEDC-7D7C-8A4C-AF30-353B210A877D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35784A90-E001-EE4F-9762-DAC8DDBDAF66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B4BA407F-7EF6-F641-926D-2394B79BC202}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>Nr</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>Messung</t>
+  </si>
+  <si>
+    <t>Datenanalyse allgemein</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
@@ -697,7 +700,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -711,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
